--- a/Sample Data/Fall2017AvailabilitySubjects.xlsx
+++ b/Sample Data/Fall2017AvailabilitySubjects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samberling/OneDrive/School/Spring 2018/CSCI 440/Schedule Generator/Sample Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68A3E642-C99C-FC44-B7F2-D8209A430A53}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67F50DD-E7C5-A548-904E-85128B8905D0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="0" windowWidth="19020" windowHeight="21000" xr2:uid="{71D515E7-43FC-794D-8CCB-B2803B57DA0E}"/>
+    <workbookView xWindow="16840" yWindow="460" windowWidth="16760" windowHeight="19180" xr2:uid="{71D515E7-43FC-794D-8CCB-B2803B57DA0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Fall2017Availability" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -435,22 +435,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Border" xfId="1" xr:uid="{EA87B071-217F-B747-82BF-1D3EF89F7797}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -471,8 +491,43 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFB5D000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -781,11 +836,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D71848E-EFA5-494B-8942-CEECAAF65D58}">
-  <dimension ref="A1:BK43"/>
+  <dimension ref="A1:BN43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BI26" sqref="BI26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BJ42" sqref="BJ42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -795,7 +850,7 @@
     <col min="63" max="63" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62">
+    <row r="1" spans="1:66">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -977,224 +1032,230 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:62">
+    <row r="2" spans="1:66">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="s">
         <v>101</v>
       </c>
+      <c r="BJ2" s="3">
+        <v>8</v>
+      </c>
+      <c r="BN2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:62">
+    <row r="3" spans="1:66">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -1203,49 +1264,49 @@
         <v>1</v>
       </c>
       <c r="N3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="1">
         <v>1</v>
@@ -1254,34 +1315,34 @@
         <v>1</v>
       </c>
       <c r="AE3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>1</v>
@@ -1290,69 +1351,72 @@
         <v>1</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI3" t="s">
         <v>108</v>
       </c>
+      <c r="BN3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:62">
+    <row r="4" spans="1:66">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1367,16 +1431,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -1385,61 +1449,61 @@
         <v>1</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF4" s="1">
         <v>1</v>
@@ -1457,10 +1521,10 @@
         <v>1</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM4" s="1">
         <v>1</v>
@@ -1472,55 +1536,55 @@
         <v>1</v>
       </c>
       <c r="AP4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="1">
         <v>1</v>
@@ -1531,8 +1595,11 @@
       <c r="BI4" t="s">
         <v>109</v>
       </c>
+      <c r="BN4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:62">
+    <row r="5" spans="1:66">
       <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
@@ -1546,25 +1613,25 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -1576,43 +1643,43 @@
         <v>1</v>
       </c>
       <c r="O5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB5" s="1">
         <v>1</v>
@@ -1621,64 +1688,64 @@
         <v>1</v>
       </c>
       <c r="AD5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX5" s="1">
         <v>1</v>
@@ -1693,63 +1760,66 @@
         <v>1</v>
       </c>
       <c r="BB5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI5" t="s">
         <v>109</v>
       </c>
+      <c r="BN5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:62">
+    <row r="6" spans="1:66">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -1758,46 +1828,46 @@
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB6" s="1">
         <v>1</v>
@@ -1806,43 +1876,43 @@
         <v>1</v>
       </c>
       <c r="AD6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ6" s="1">
         <v>1</v>
@@ -1851,84 +1921,87 @@
         <v>1</v>
       </c>
       <c r="AS6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI6" t="s">
         <v>109</v>
       </c>
+      <c r="BN6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:62">
+    <row r="7" spans="1:66">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1943,64 +2016,64 @@
         <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH7" s="1">
         <v>1</v>
@@ -2015,28 +2088,28 @@
         <v>1</v>
       </c>
       <c r="AL7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>1</v>
@@ -2054,120 +2127,126 @@
         <v>1</v>
       </c>
       <c r="AY7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="s">
         <v>109</v>
       </c>
+      <c r="BJ7" s="3">
+        <v>-2</v>
+      </c>
+      <c r="BN7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:62">
+    <row r="8" spans="1:66">
       <c r="A8" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="1">
         <v>1</v>
@@ -2176,34 +2255,34 @@
         <v>1</v>
       </c>
       <c r="AD8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN8" s="1">
         <v>1</v>
@@ -2212,31 +2291,31 @@
         <v>1</v>
       </c>
       <c r="AP8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>1</v>
@@ -2245,42 +2324,45 @@
         <v>1</v>
       </c>
       <c r="BA8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI8" t="s">
         <v>110</v>
       </c>
+      <c r="BN8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:62">
+    <row r="9" spans="1:66">
       <c r="A9" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -2292,52 +2374,52 @@
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W9" s="1">
         <v>1</v>
@@ -2352,64 +2434,64 @@
         <v>1</v>
       </c>
       <c r="AA9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU9" s="1">
         <v>1</v>
@@ -2436,19 +2518,19 @@
         <v>1</v>
       </c>
       <c r="BC9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH9" s="1">
         <v>1</v>
@@ -2456,25 +2538,28 @@
       <c r="BI9" t="s">
         <v>111</v>
       </c>
+      <c r="BN9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:62">
+    <row r="10" spans="1:66">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -2483,25 +2568,25 @@
         <v>1</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>1</v>
@@ -2519,34 +2604,34 @@
         <v>1</v>
       </c>
       <c r="U10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>1</v>
@@ -2555,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="1">
         <v>1</v>
@@ -2564,10 +2649,10 @@
         <v>1</v>
       </c>
       <c r="AJ10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="1">
         <v>1</v>
@@ -2591,31 +2676,31 @@
         <v>1</v>
       </c>
       <c r="AS10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="1">
         <v>1</v>
@@ -2624,78 +2709,84 @@
         <v>1</v>
       </c>
       <c r="BD10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="s">
         <v>106</v>
       </c>
+      <c r="BJ10" s="3">
+        <v>-2</v>
+      </c>
+      <c r="BN10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:62">
+    <row r="11" spans="1:66">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
         <v>1</v>
@@ -2707,73 +2798,73 @@
         <v>1</v>
       </c>
       <c r="V11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS11" s="1">
         <v>1</v>
@@ -2788,87 +2879,93 @@
         <v>1</v>
       </c>
       <c r="AW11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI11" t="s">
         <v>102</v>
       </c>
+      <c r="BJ11" s="3">
+        <v>-2</v>
+      </c>
+      <c r="BN11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:62">
+    <row r="12" spans="1:66">
       <c r="A12" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
         <v>1</v>
@@ -2880,70 +2977,70 @@
         <v>1</v>
       </c>
       <c r="R12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN12" s="1">
         <v>1</v>
@@ -2955,19 +3052,19 @@
         <v>1</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV12" s="1">
         <v>1</v>
@@ -2991,28 +3088,34 @@
         <v>1</v>
       </c>
       <c r="BC12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="s">
         <v>112</v>
       </c>
+      <c r="BJ12" s="3">
+        <v>-2</v>
+      </c>
+      <c r="BN12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:62">
+    <row r="13" spans="1:66">
       <c r="A13" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,34 +3135,34 @@
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
         <v>1</v>
@@ -3068,34 +3171,34 @@
         <v>1</v>
       </c>
       <c r="S13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="1">
         <v>1</v>
@@ -3104,34 +3207,34 @@
         <v>1</v>
       </c>
       <c r="AE13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>1</v>
@@ -3140,22 +3243,22 @@
         <v>1</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW13" s="1">
         <v>1</v>
@@ -3164,84 +3267,87 @@
         <v>1</v>
       </c>
       <c r="AY13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI13" t="s">
         <v>112</v>
       </c>
+      <c r="BN13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:62">
+    <row r="14" spans="1:66">
       <c r="A14" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>1</v>
@@ -3250,43 +3356,43 @@
         <v>1</v>
       </c>
       <c r="R14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>1</v>
@@ -3295,61 +3401,61 @@
         <v>1</v>
       </c>
       <c r="AG14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="1">
         <v>1</v>
@@ -3358,129 +3464,132 @@
         <v>1</v>
       </c>
       <c r="BB14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI14" t="s">
         <v>103</v>
       </c>
+      <c r="BN14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:62">
+    <row r="15" spans="1:66">
       <c r="A15" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH15" s="1">
         <v>1</v>
@@ -3489,16 +3598,16 @@
         <v>1</v>
       </c>
       <c r="AJ15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="1">
         <v>1</v>
@@ -3507,19 +3616,19 @@
         <v>1</v>
       </c>
       <c r="AP15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU15" s="1">
         <v>1</v>
@@ -3531,60 +3640,63 @@
         <v>1</v>
       </c>
       <c r="AX15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI15" t="s">
         <v>103</v>
       </c>
+      <c r="BN15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:62">
+    <row r="16" spans="1:66">
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -3596,31 +3708,31 @@
         <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1">
         <v>1</v>
@@ -3632,31 +3744,31 @@
         <v>1</v>
       </c>
       <c r="V16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>1</v>
@@ -3668,31 +3780,31 @@
         <v>1</v>
       </c>
       <c r="AH16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ16" s="1">
         <v>1</v>
@@ -3704,31 +3816,31 @@
         <v>1</v>
       </c>
       <c r="AT16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC16" s="1">
         <v>1</v>
@@ -3740,13 +3852,13 @@
         <v>1</v>
       </c>
       <c r="BF16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI16" t="s">
         <v>113</v>
@@ -3754,76 +3866,85 @@
       <c r="BJ16" t="s">
         <v>106</v>
       </c>
+      <c r="BK16">
+        <v>10</v>
+      </c>
+      <c r="BL16">
+        <v>-2</v>
+      </c>
+      <c r="BN16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:63">
+    <row r="17" spans="1:66">
       <c r="A17" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X17" s="1">
         <v>1</v>
@@ -3832,40 +3953,40 @@
         <v>1</v>
       </c>
       <c r="Z17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="1">
         <v>1</v>
@@ -3874,43 +3995,43 @@
         <v>1</v>
       </c>
       <c r="AN17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="1">
         <v>1</v>
@@ -3919,54 +4040,57 @@
         <v>1</v>
       </c>
       <c r="BC17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI17" t="s">
         <v>113</v>
       </c>
+      <c r="BN17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:63">
+    <row r="18" spans="1:66">
       <c r="A18" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -3975,34 +4099,34 @@
         <v>1</v>
       </c>
       <c r="L18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="1">
         <v>1</v>
@@ -4011,34 +4135,34 @@
         <v>1</v>
       </c>
       <c r="X18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="1">
         <v>1</v>
@@ -4047,123 +4171,126 @@
         <v>1</v>
       </c>
       <c r="AJ18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI18" t="s">
         <v>114</v>
       </c>
+      <c r="BN18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:63">
+    <row r="19" spans="1:66">
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19" s="1">
         <v>1</v>
@@ -4172,28 +4299,28 @@
         <v>1</v>
       </c>
       <c r="P19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X19" s="1">
         <v>1</v>
@@ -4205,16 +4332,16 @@
         <v>1</v>
       </c>
       <c r="AA19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>1</v>
@@ -4223,7 +4350,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH19" s="1">
         <v>1</v>
@@ -4232,120 +4359,123 @@
         <v>1</v>
       </c>
       <c r="AJ19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI19" t="s">
         <v>115</v>
       </c>
+      <c r="BN19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:63">
+    <row r="20" spans="1:66">
       <c r="A20" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
@@ -4357,52 +4487,52 @@
         <v>1</v>
       </c>
       <c r="P20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF20" s="1">
         <v>1</v>
@@ -4417,7 +4547,7 @@
         <v>1</v>
       </c>
       <c r="AJ20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK20" s="1">
         <v>1</v>
@@ -4432,28 +4562,28 @@
         <v>1</v>
       </c>
       <c r="AO20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW20" s="1">
         <v>1</v>
@@ -4468,34 +4598,37 @@
         <v>1</v>
       </c>
       <c r="BA20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI20" t="s">
         <v>104</v>
       </c>
+      <c r="BN20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:63">
+    <row r="21" spans="1:66">
       <c r="A21" s="1" t="s">
         <v>79</v>
       </c>
@@ -4506,112 +4639,112 @@
         <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN21" s="1">
         <v>1</v>
@@ -4620,25 +4753,25 @@
         <v>1</v>
       </c>
       <c r="AP21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW21" s="1">
         <v>1</v>
@@ -4647,219 +4780,222 @@
         <v>1</v>
       </c>
       <c r="AY21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI21" t="s">
         <v>104</v>
       </c>
+      <c r="BN21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:63">
+    <row r="22" spans="1:66">
       <c r="A22" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI22" t="s">
         <v>105</v>
@@ -4870,40 +5006,49 @@
       <c r="BK22" t="s">
         <v>107</v>
       </c>
+      <c r="BL22">
+        <v>12</v>
+      </c>
+      <c r="BM22">
+        <v>-2</v>
+      </c>
+      <c r="BN22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:63">
+    <row r="23" spans="1:66">
       <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1">
         <v>1</v>
@@ -4912,43 +5057,43 @@
         <v>1</v>
       </c>
       <c r="N23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="1">
         <v>1</v>
@@ -4957,19 +5102,19 @@
         <v>1</v>
       </c>
       <c r="AC23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="1">
         <v>1</v>
@@ -4978,123 +5123,129 @@
         <v>1</v>
       </c>
       <c r="AJ23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI23" t="s">
         <v>105</v>
       </c>
+      <c r="BJ23" s="3">
+        <v>-2</v>
+      </c>
+      <c r="BN23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:63">
+    <row r="24" spans="1:66">
       <c r="A24" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24" s="1">
         <v>1</v>
@@ -5103,88 +5254,88 @@
         <v>1</v>
       </c>
       <c r="P24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR24" s="1">
         <v>1</v>
@@ -5193,90 +5344,96 @@
         <v>1</v>
       </c>
       <c r="AT24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI24" t="s">
         <v>117</v>
       </c>
+      <c r="BJ24" s="3">
+        <v>-2</v>
+      </c>
+      <c r="BN24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:63">
+    <row r="25" spans="1:66">
       <c r="A25" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M25" s="1">
         <v>1</v>
@@ -5297,25 +5454,25 @@
         <v>1</v>
       </c>
       <c r="S25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z25" s="1">
         <v>1</v>
@@ -5333,22 +5490,22 @@
         <v>1</v>
       </c>
       <c r="AE25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK25" s="1">
         <v>1</v>
@@ -5363,16 +5520,16 @@
         <v>1</v>
       </c>
       <c r="AO25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25" s="1">
         <v>1</v>
       </c>
       <c r="AQ25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS25" s="1">
         <v>1</v>
@@ -5399,34 +5556,37 @@
         <v>1</v>
       </c>
       <c r="BA25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB25" s="1">
         <v>1</v>
       </c>
       <c r="BC25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI25" t="s">
         <v>117</v>
       </c>
+      <c r="BN25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:63">
+    <row r="26" spans="1:66">
       <c r="A26" s="1" t="s">
         <v>84</v>
       </c>
@@ -5443,31 +5603,31 @@
         <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="1">
         <v>1</v>
@@ -5482,40 +5642,40 @@
         <v>1</v>
       </c>
       <c r="S26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>1</v>
@@ -5527,52 +5687,52 @@
         <v>1</v>
       </c>
       <c r="AH26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX26" s="1">
         <v>1</v>
@@ -5587,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="BB26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC26" s="1">
         <v>1</v>
@@ -5610,40 +5770,43 @@
       <c r="BI26" t="s">
         <v>117</v>
       </c>
+      <c r="BN26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:63">
+    <row r="27" spans="1:66">
       <c r="A27" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1">
         <v>1</v>
@@ -5655,67 +5818,67 @@
         <v>1</v>
       </c>
       <c r="O27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ27" s="1">
         <v>1</v>
@@ -5727,61 +5890,61 @@
         <v>1</v>
       </c>
       <c r="AM27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF27" s="1">
         <v>1</v>
@@ -5795,34 +5958,37 @@
       <c r="BI27" t="s">
         <v>118</v>
       </c>
+      <c r="BN27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:63">
+    <row r="28" spans="1:66">
       <c r="A28" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
@@ -5831,70 +5997,70 @@
         <v>1</v>
       </c>
       <c r="L28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH28" s="1">
         <v>1</v>
@@ -5903,37 +6069,37 @@
         <v>1</v>
       </c>
       <c r="AJ28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU28" s="1">
         <v>1</v>
@@ -5942,63 +6108,69 @@
         <v>1</v>
       </c>
       <c r="AW28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI28" t="s">
         <v>118</v>
       </c>
+      <c r="BJ28" s="3">
+        <v>-2</v>
+      </c>
+      <c r="BN28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:63">
+    <row r="29" spans="1:66">
       <c r="A29" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -6028,121 +6200,121 @@
         <v>1</v>
       </c>
       <c r="P29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC29" s="1">
         <v>1</v>
@@ -6165,25 +6337,28 @@
       <c r="BI29" t="s">
         <v>106</v>
       </c>
+      <c r="BN29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:63">
+    <row r="30" spans="1:66">
       <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -6192,70 +6367,70 @@
         <v>1</v>
       </c>
       <c r="I30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="1">
         <v>1</v>
@@ -6267,67 +6442,67 @@
         <v>1</v>
       </c>
       <c r="AH30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC30" s="1">
         <v>1</v>
@@ -6336,99 +6511,108 @@
         <v>1</v>
       </c>
       <c r="BE30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI30" t="s">
         <v>106</v>
       </c>
+      <c r="BJ30" s="3">
+        <v>9</v>
+      </c>
+      <c r="BK30" s="3">
+        <v>-2</v>
+      </c>
+      <c r="BN30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:63">
+    <row r="31" spans="1:66">
       <c r="A31" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA31" s="1">
         <v>1</v>
@@ -6440,52 +6624,52 @@
         <v>1</v>
       </c>
       <c r="AD31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT31" s="1">
         <v>1</v>
@@ -6497,25 +6681,25 @@
         <v>1</v>
       </c>
       <c r="AW31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD31" s="1">
         <v>1</v>
@@ -6524,13 +6708,13 @@
         <v>1</v>
       </c>
       <c r="BF31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI31" t="s">
         <v>116</v>
@@ -6538,372 +6722,384 @@
       <c r="BJ31" t="s">
         <v>106</v>
       </c>
+      <c r="BK31" s="4">
+        <v>-2</v>
+      </c>
+      <c r="BN31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:63">
+    <row r="32" spans="1:66">
       <c r="A32" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="1">
         <v>1</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T32" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U32" s="1">
         <v>1</v>
       </c>
       <c r="V32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X32" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y32" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="1">
         <v>1</v>
       </c>
       <c r="AH32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ32" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR32" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS32" s="1">
         <v>1</v>
       </c>
       <c r="AT32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV32" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW32" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE32" s="1">
         <v>1</v>
       </c>
       <c r="BF32" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG32" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI32" t="s">
         <v>106</v>
       </c>
+      <c r="BJ32" s="3">
+        <v>-2</v>
+      </c>
+      <c r="BN32">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:62">
+    <row r="33" spans="1:66">
       <c r="A33" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI33" t="s">
         <v>106</v>
@@ -6911,31 +7107,40 @@
       <c r="BJ33" t="s">
         <v>107</v>
       </c>
+      <c r="BK33" s="4">
+        <v>12</v>
+      </c>
+      <c r="BL33" s="4">
+        <v>-2</v>
+      </c>
+      <c r="BN33">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:62">
+    <row r="34" spans="1:66">
       <c r="A34" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" s="1">
         <v>1</v>
@@ -6953,22 +7158,22 @@
         <v>1</v>
       </c>
       <c r="N34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" s="1">
         <v>1</v>
@@ -6977,37 +7182,37 @@
         <v>1</v>
       </c>
       <c r="V34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG34" s="1">
         <v>1</v>
@@ -7016,70 +7221,70 @@
         <v>1</v>
       </c>
       <c r="AI34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE34" s="1">
         <v>1</v>
@@ -7088,16 +7293,19 @@
         <v>1</v>
       </c>
       <c r="BG34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI34" t="s">
         <v>106</v>
       </c>
+      <c r="BN34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:62">
+    <row r="35" spans="1:66">
       <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
@@ -7114,22 +7322,22 @@
         <v>1</v>
       </c>
       <c r="F35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L35" s="1">
         <v>1</v>
@@ -7138,19 +7346,19 @@
         <v>1</v>
       </c>
       <c r="N35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="1">
         <v>1</v>
@@ -7159,46 +7367,46 @@
         <v>1</v>
       </c>
       <c r="U35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="1">
         <v>1</v>
@@ -7210,10 +7418,10 @@
         <v>1</v>
       </c>
       <c r="AL35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN35" s="1">
         <v>1</v>
@@ -7222,7 +7430,7 @@
         <v>1</v>
       </c>
       <c r="AP35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ35" s="1">
         <v>1</v>
@@ -7231,34 +7439,34 @@
         <v>1</v>
       </c>
       <c r="AS35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC35" s="1">
         <v>1</v>
@@ -7267,224 +7475,230 @@
         <v>1</v>
       </c>
       <c r="BE35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI35" t="s">
         <v>106</v>
       </c>
+      <c r="BN35">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:62">
+    <row r="36" spans="1:66">
       <c r="A36" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI36" t="s">
         <v>106</v>
       </c>
+      <c r="BN36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:62">
+    <row r="37" spans="1:66">
       <c r="A37" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
@@ -7499,70 +7713,70 @@
         <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="1">
         <v>1</v>
@@ -7571,70 +7785,70 @@
         <v>1</v>
       </c>
       <c r="AI37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE37" s="1">
         <v>1</v>
@@ -7643,218 +7857,230 @@
         <v>1</v>
       </c>
       <c r="BG37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI37" t="s">
         <v>106</v>
       </c>
+      <c r="BN37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:62">
+    <row r="38" spans="1:66">
       <c r="A38" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI38" t="s">
         <v>106</v>
       </c>
+      <c r="BJ38" s="3">
+        <v>3</v>
+      </c>
+      <c r="BK38" s="3">
+        <v>-2</v>
+      </c>
+      <c r="BN38">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:62">
+    <row r="39" spans="1:66">
       <c r="A39" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
@@ -7866,61 +8092,61 @@
         <v>1</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="1">
         <v>1</v>
@@ -7938,61 +8164,61 @@
         <v>1</v>
       </c>
       <c r="AH39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA39" s="1">
         <v>1</v>
@@ -8001,51 +8227,57 @@
         <v>1</v>
       </c>
       <c r="BC39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI39" t="s">
         <v>106</v>
       </c>
+      <c r="BJ39" s="3">
+        <v>12</v>
+      </c>
+      <c r="BN39">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:62">
+    <row r="40" spans="1:66">
       <c r="A40" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" s="1">
         <v>1</v>
@@ -8054,70 +8286,70 @@
         <v>1</v>
       </c>
       <c r="K40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG40" s="1">
         <v>1</v>
@@ -8126,10 +8358,10 @@
         <v>1</v>
       </c>
       <c r="AI40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK40" s="1">
         <v>1</v>
@@ -8138,52 +8370,52 @@
         <v>1</v>
       </c>
       <c r="AM40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC40" s="1">
         <v>1</v>
@@ -8192,13 +8424,13 @@
         <v>1</v>
       </c>
       <c r="BE40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH40" s="1">
         <v>1</v>
@@ -8209,73 +8441,79 @@
       <c r="BJ40" t="s">
         <v>107</v>
       </c>
+      <c r="BK40" s="4">
+        <v>-2</v>
+      </c>
+      <c r="BN40">
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="1:62">
+    <row r="41" spans="1:66">
       <c r="A41" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W41" s="1">
         <v>1</v>
@@ -8290,64 +8528,64 @@
         <v>1</v>
       </c>
       <c r="AA41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU41" s="1">
         <v>1</v>
@@ -8362,25 +8600,25 @@
         <v>1</v>
       </c>
       <c r="AY41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF41" s="1">
         <v>1</v>
@@ -8394,19 +8632,22 @@
       <c r="BI41" t="s">
         <v>106</v>
       </c>
+      <c r="BN41">
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:62">
+    <row r="42" spans="1:66">
       <c r="A42" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -8415,25 +8656,25 @@
         <v>1</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N42" s="1">
         <v>1</v>
@@ -8442,13 +8683,13 @@
         <v>1</v>
       </c>
       <c r="P42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42" s="1">
         <v>1</v>
@@ -8457,115 +8698,115 @@
         <v>1</v>
       </c>
       <c r="U42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF42" s="1">
         <v>1</v>
@@ -8574,257 +8815,274 @@
         <v>1</v>
       </c>
       <c r="BH42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI42" t="s">
         <v>106</v>
       </c>
+      <c r="BN42">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:62">
+    <row r="43" spans="1:66">
       <c r="B43">
-        <f>SUM(B2:B42)</f>
-        <v>41</v>
+        <f>SUMIF(B2:B42, "&lt;2", $BN2:$BN42)</f>
+        <v>37</v>
       </c>
       <c r="C43">
-        <f>SUM(C2:C42)</f>
-        <v>41</v>
+        <f>SUMIF(C2:C42, "&lt;2", $BN2:$BN42)</f>
+        <v>36</v>
       </c>
       <c r="D43">
-        <f>SUM(D2:D42)</f>
-        <v>41</v>
+        <f>SUMIF(D2:D42, "&lt;2", $BN2:$BN42)</f>
+        <v>36</v>
       </c>
       <c r="E43">
-        <f>SUM(E2:E42)</f>
-        <v>41</v>
+        <f>SUMIF(E2:E42, "&lt;2", $BN2:$BN42)</f>
+        <v>35</v>
       </c>
       <c r="F43">
-        <f>SUM(F2:F42)</f>
-        <v>41</v>
+        <f>SUMIF(F2:F42, "&lt;2", $BN2:$BN42)</f>
+        <v>36</v>
       </c>
       <c r="G43">
-        <f>SUM(G2:G42)</f>
+        <f>SUMIF(G2:G42, "&lt;2", $BN2:$BN42)</f>
+        <v>27</v>
+      </c>
+      <c r="H43">
+        <f>SUMIF(H2:H42, "&lt;2", $BN2:$BN42)</f>
+        <v>19</v>
+      </c>
+      <c r="I43">
+        <f>SUMIF(I2:I42, "&lt;2", $BN2:$BN42)</f>
+        <v>21</v>
+      </c>
+      <c r="J43">
+        <f>SUMIF(J2:J42, "&lt;2", $BN2:$BN42)</f>
+        <v>33</v>
+      </c>
+      <c r="K43">
+        <f>SUMIF(K2:K42, "&lt;2", $BN2:$BN42)</f>
+        <v>30</v>
+      </c>
+      <c r="L43">
+        <f>SUMIF(L2:L42, "&lt;2", $BN2:$BN42)</f>
+        <v>23</v>
+      </c>
+      <c r="M43">
+        <f>SUMIF(M2:M42, "&lt;2", $BN2:$BN42)</f>
+        <v>27</v>
+      </c>
+      <c r="N43">
+        <f>SUMIF(N2:N42, "&lt;2", $BN2:$BN42)</f>
+        <v>29</v>
+      </c>
+      <c r="O43">
+        <f>SUMIF(O2:O42, "&lt;2", $BN2:$BN42)</f>
+        <v>33</v>
+      </c>
+      <c r="P43">
+        <f>SUMIF(P2:P42, "&lt;2", $BN2:$BN42)</f>
         <v>28</v>
       </c>
-      <c r="H43">
-        <f>SUM(H2:H42)</f>
+      <c r="Q43">
+        <f>SUMIF(Q2:Q42, "&lt;2", $BN2:$BN42)</f>
+        <v>28</v>
+      </c>
+      <c r="R43">
+        <f>SUMIF(R2:R42, "&lt;2", $BN2:$BN42)</f>
+        <v>39</v>
+      </c>
+      <c r="S43">
+        <f>SUMIF(S2:S42, "&lt;2", $BN2:$BN42)</f>
         <v>20</v>
       </c>
-      <c r="I43">
-        <f>SUM(I2:I42)</f>
+      <c r="T43">
+        <f>SUMIF(T2:T42, "&lt;2", $BN2:$BN42)</f>
+        <v>18</v>
+      </c>
+      <c r="U43">
+        <f>SUMIF(U2:U42, "&lt;2", $BN2:$BN42)</f>
+        <v>22</v>
+      </c>
+      <c r="V43">
+        <f>SUMIF(V2:V42, "&lt;2", $BN2:$BN42)</f>
+        <v>15</v>
+      </c>
+      <c r="W43">
+        <f>SUMIF(W2:W42, "&lt;2", $BN2:$BN42)</f>
+        <v>19</v>
+      </c>
+      <c r="X43">
+        <f>SUMIF(X2:X42, "&lt;2", $BN2:$BN42)</f>
         <v>21</v>
       </c>
-      <c r="J43">
-        <f>SUM(J2:J42)</f>
+      <c r="Y43">
+        <f>SUMIF(Y2:Y42, "&lt;2", $BN2:$BN42)</f>
+        <v>19</v>
+      </c>
+      <c r="Z43">
+        <f>SUMIF(Z2:Z42, "&lt;2", $BN2:$BN42)</f>
+        <v>22</v>
+      </c>
+      <c r="AA43">
+        <f>SUMIF(AA2:AA42, "&lt;2", $BN2:$BN42)</f>
+        <v>14</v>
+      </c>
+      <c r="AB43">
+        <f>SUMIF(AB2:AB42, "&lt;2", $BN2:$BN42)</f>
+        <v>32</v>
+      </c>
+      <c r="AC43">
+        <f>SUMIF(AC2:AC42, "&lt;2", $BN2:$BN42)</f>
+        <v>32</v>
+      </c>
+      <c r="AD43">
+        <f>SUMIF(AD2:AD42, "&lt;2", $BN2:$BN42)</f>
         <v>34</v>
       </c>
-      <c r="K43">
-        <f>SUM(K2:K42)</f>
-        <v>31</v>
-      </c>
-      <c r="L43">
-        <f>SUM(L2:L42)</f>
+      <c r="AE43">
+        <f>SUMIF(AE2:AE42, "&lt;2", $BN2:$BN42)</f>
+        <v>28</v>
+      </c>
+      <c r="AF43">
+        <f>SUMIF(AF2:AF42, "&lt;2", $BN2:$BN42)</f>
+        <v>20</v>
+      </c>
+      <c r="AG43">
+        <f>SUMIF(AG2:AG42, "&lt;2", $BN2:$BN42)</f>
+        <v>27</v>
+      </c>
+      <c r="AH43">
+        <f>SUMIF(AH2:AH42, "&lt;2", $BN2:$BN42)</f>
+        <v>40</v>
+      </c>
+      <c r="AI43">
+        <f>SUMIF(AI2:AI42, "&lt;2", $BN2:$BN42)</f>
+        <v>32</v>
+      </c>
+      <c r="AJ43">
+        <f>SUMIF(AJ2:AJ42, "&lt;2", $BN2:$BN42)</f>
+        <v>19</v>
+      </c>
+      <c r="AK43">
+        <f>SUMIF(AK2:AK42, "&lt;2", $BN2:$BN42)</f>
+        <v>20</v>
+      </c>
+      <c r="AL43">
+        <f>SUMIF(AL2:AL42, "&lt;2", $BN2:$BN42)</f>
+        <v>24</v>
+      </c>
+      <c r="AM43">
+        <f>SUMIF(AM2:AM42, "&lt;2", $BN2:$BN42)</f>
+        <v>28</v>
+      </c>
+      <c r="AN43">
+        <f>SUMIF(AN2:AN42, "&lt;2", $BN2:$BN42)</f>
+        <v>30</v>
+      </c>
+      <c r="AO43">
+        <f>SUMIF(AO2:AO42, "&lt;2", $BN2:$BN42)</f>
+        <v>30</v>
+      </c>
+      <c r="AP43">
+        <f>SUMIF(AP2:AP42, "&lt;2", $BN2:$BN42)</f>
+        <v>32</v>
+      </c>
+      <c r="AQ43">
+        <f>SUMIF(AQ2:AQ42, "&lt;2", $BN2:$BN42)</f>
+        <v>20</v>
+      </c>
+      <c r="AR43">
+        <f>SUMIF(AR2:AR42, "&lt;2", $BN2:$BN42)</f>
+        <v>19</v>
+      </c>
+      <c r="AS43">
+        <f>SUMIF(AS2:AS42, "&lt;2", $BN2:$BN42)</f>
+        <v>22</v>
+      </c>
+      <c r="AT43">
+        <f>SUMIF(AT2:AT42, "&lt;2", $BN2:$BN42)</f>
+        <v>13</v>
+      </c>
+      <c r="AU43">
+        <f>SUMIF(AU2:AU42, "&lt;2", $BN2:$BN42)</f>
+        <v>21</v>
+      </c>
+      <c r="AV43">
+        <f>SUMIF(AV2:AV42, "&lt;2", $BN2:$BN42)</f>
+        <v>30</v>
+      </c>
+      <c r="AW43">
+        <f>SUMIF(AW2:AW42, "&lt;2", $BN2:$BN42)</f>
         <v>25</v>
       </c>
-      <c r="M43">
-        <f>SUM(M2:M42)</f>
-        <v>31</v>
-      </c>
-      <c r="N43">
-        <f>SUM(N2:N42)</f>
-        <v>35</v>
-      </c>
-      <c r="O43">
-        <f>SUM(O2:O42)</f>
-        <v>38</v>
-      </c>
-      <c r="P43">
-        <f>SUM(P2:P42)</f>
-        <v>40</v>
-      </c>
-      <c r="Q43">
-        <f>SUM(Q2:Q42)</f>
-        <v>40</v>
-      </c>
-      <c r="R43">
-        <f>SUM(R2:R42)</f>
-        <v>41</v>
-      </c>
-      <c r="S43">
-        <f>SUM(S2:S42)</f>
+      <c r="AX43">
+        <f>SUMIF(AX2:AX42, "&lt;2", $BN2:$BN42)</f>
+        <v>27</v>
+      </c>
+      <c r="AY43">
+        <f>SUMIF(AY2:AY42, "&lt;2", $BN2:$BN42)</f>
+        <v>32</v>
+      </c>
+      <c r="AZ43">
+        <f>SUMIF(AZ2:AZ42, "&lt;2", $BN2:$BN42)</f>
+        <v>33</v>
+      </c>
+      <c r="BA43">
+        <f>SUMIF(BA2:BA42, "&lt;2", $BN2:$BN42)</f>
+        <v>33</v>
+      </c>
+      <c r="BB43">
+        <f>SUMIF(BB2:BB42, "&lt;2", $BN2:$BN42)</f>
+        <v>34</v>
+      </c>
+      <c r="BC43">
+        <f>SUMIF(BC2:BC42, "&lt;2", $BN2:$BN42)</f>
+        <v>25</v>
+      </c>
+      <c r="BD43">
+        <f>SUMIF(BD2:BD42, "&lt;2", $BN2:$BN42)</f>
         <v>20</v>
       </c>
-      <c r="T43">
-        <f>SUM(T2:T42)</f>
-        <v>18</v>
-      </c>
-      <c r="U43">
-        <f>SUM(U2:U42)</f>
-        <v>22</v>
-      </c>
-      <c r="V43">
-        <f>SUM(V2:V42)</f>
-        <v>15</v>
-      </c>
-      <c r="W43">
-        <f>SUM(W2:W42)</f>
+      <c r="BE43">
+        <f>SUMIF(BE2:BE42, "&lt;2", $BN2:$BN42)</f>
         <v>20</v>
       </c>
-      <c r="X43">
-        <f>SUM(X2:X42)</f>
-        <v>21</v>
-      </c>
-      <c r="Y43">
-        <f>SUM(Y2:Y42)</f>
-        <v>22</v>
-      </c>
-      <c r="Z43">
-        <f>SUM(Z2:Z42)</f>
-        <v>29</v>
-      </c>
-      <c r="AA43">
-        <f>SUM(AA2:AA42)</f>
-        <v>21</v>
-      </c>
-      <c r="AB43">
-        <f>SUM(AB2:AB42)</f>
-        <v>39</v>
-      </c>
-      <c r="AC43">
-        <f>SUM(AC2:AC42)</f>
-        <v>40</v>
-      </c>
-      <c r="AD43">
-        <f>SUM(AD2:AD42)</f>
-        <v>41</v>
-      </c>
-      <c r="AE43">
-        <f>SUM(AE2:AE42)</f>
-        <v>29</v>
-      </c>
-      <c r="AF43">
-        <f>SUM(AF2:AF42)</f>
-        <v>20</v>
-      </c>
-      <c r="AG43">
-        <f>SUM(AG2:AG42)</f>
-        <v>27</v>
-      </c>
-      <c r="AH43">
-        <f>SUM(AH2:AH42)</f>
-        <v>40</v>
-      </c>
-      <c r="AI43">
-        <f>SUM(AI2:AI42)</f>
-        <v>33</v>
-      </c>
-      <c r="AJ43">
-        <f>SUM(AJ2:AJ42)</f>
-        <v>21</v>
-      </c>
-      <c r="AK43">
-        <f>SUM(AK2:AK42)</f>
-        <v>24</v>
-      </c>
-      <c r="AL43">
-        <f>SUM(AL2:AL42)</f>
+      <c r="BF43">
+        <f>SUMIF(BF2:BF42, "&lt;2", $BN2:$BN42)</f>
+        <v>32</v>
+      </c>
+      <c r="BG43">
+        <f>SUMIF(BG2:BG42, "&lt;2", $BN2:$BN42)</f>
         <v>30</v>
       </c>
-      <c r="AM43">
-        <f>SUM(AM2:AM42)</f>
-        <v>32</v>
-      </c>
-      <c r="AN43">
-        <f>SUM(AN2:AN42)</f>
-        <v>37</v>
-      </c>
-      <c r="AO43">
-        <f>SUM(AO2:AO42)</f>
-        <v>37</v>
-      </c>
-      <c r="AP43">
-        <f>SUM(AP2:AP42)</f>
-        <v>40</v>
-      </c>
-      <c r="AQ43">
-        <f>SUM(AQ2:AQ42)</f>
-        <v>20</v>
-      </c>
-      <c r="AR43">
-        <f>SUM(AR2:AR42)</f>
-        <v>19</v>
-      </c>
-      <c r="AS43">
-        <f>SUM(AS2:AS42)</f>
-        <v>22</v>
-      </c>
-      <c r="AT43">
-        <f>SUM(AT2:AT42)</f>
-        <v>13</v>
-      </c>
-      <c r="AU43">
-        <f>SUM(AU2:AU42)</f>
-        <v>22</v>
-      </c>
-      <c r="AV43">
-        <f>SUM(AV2:AV42)</f>
-        <v>30</v>
-      </c>
-      <c r="AW43">
-        <f>SUM(AW2:AW42)</f>
-        <v>28</v>
-      </c>
-      <c r="AX43">
-        <f>SUM(AX2:AX42)</f>
-        <v>33</v>
-      </c>
-      <c r="AY43">
-        <f>SUM(AY2:AY42)</f>
-        <v>38</v>
-      </c>
-      <c r="AZ43">
-        <f>SUM(AZ2:AZ42)</f>
-        <v>39</v>
-      </c>
-      <c r="BA43">
-        <f>SUM(BA2:BA42)</f>
-        <v>41</v>
-      </c>
-      <c r="BB43" s="3">
-        <f>SUM(BB2:BB42)</f>
-        <v>41</v>
-      </c>
-      <c r="BC43" s="3">
-        <f>SUM(BC2:BC42)</f>
-        <v>28</v>
-      </c>
-      <c r="BD43">
-        <f>SUM(BD2:BD42)</f>
-        <v>23</v>
-      </c>
-      <c r="BE43">
-        <f>SUM(BE2:BE42)</f>
-        <v>23</v>
-      </c>
-      <c r="BF43">
-        <f>SUM(BF2:BF42)</f>
-        <v>36</v>
-      </c>
-      <c r="BG43">
-        <f>SUM(BG2:BG42)</f>
-        <v>33</v>
-      </c>
       <c r="BH43">
-        <f>SUM(BH2:BH42)</f>
-        <v>29</v>
+        <f>SUMIF(BH2:BH42, "&lt;2", $BN2:$BN42)</f>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:BH42">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2:BH42 BJ2 BJ38:BJ39 BJ7 BJ10:BJ12 BJ23:BJ24 BJ28 BJ30:BK30 BK31 BJ32 BK33:BL33 BK38 BK40">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:BH42 BJ2 BJ38:BJ39 BJ7 BJ10:BJ12 BJ23:BJ24 BJ28 BJ30:BK30 BK31 BJ32 BK33:BL33 BK38 BK40">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sample Data/Fall2017AvailabilitySubjects.xlsx
+++ b/Sample Data/Fall2017AvailabilitySubjects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samberling/OneDrive/School/Spring 2018/CSCI 440/Schedule Generator/Sample Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67F50DD-E7C5-A548-904E-85128B8905D0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814A5100-AD5B-5E45-9BE8-E10EC47BDC6C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16840" yWindow="460" windowWidth="16760" windowHeight="19180" xr2:uid="{71D515E7-43FC-794D-8CCB-B2803B57DA0E}"/>
   </bookViews>
@@ -207,129 +207,6 @@
     <t>5-14</t>
   </si>
   <si>
-    <t>mzach</t>
-  </si>
-  <si>
-    <t>jdejesus</t>
-  </si>
-  <si>
-    <t>iyu</t>
-  </si>
-  <si>
-    <t>eparlan</t>
-  </si>
-  <si>
-    <t>bwitter</t>
-  </si>
-  <si>
-    <t>gchang</t>
-  </si>
-  <si>
-    <t>jli</t>
-  </si>
-  <si>
-    <t>kstutz</t>
-  </si>
-  <si>
-    <t>klamar</t>
-  </si>
-  <si>
-    <t>sberling</t>
-  </si>
-  <si>
-    <t>mkraus</t>
-  </si>
-  <si>
-    <t>glizier</t>
-  </si>
-  <si>
-    <t>cvanboven</t>
-  </si>
-  <si>
-    <t>lroberts</t>
-  </si>
-  <si>
-    <t>zbranch</t>
-  </si>
-  <si>
-    <t>mpoplawsky</t>
-  </si>
-  <si>
-    <t>kmoffett</t>
-  </si>
-  <si>
-    <t>bimada</t>
-  </si>
-  <si>
-    <t>rchaiser</t>
-  </si>
-  <si>
-    <t>mberrens</t>
-  </si>
-  <si>
-    <t>jfonseca</t>
-  </si>
-  <si>
-    <t>kmiller</t>
-  </si>
-  <si>
-    <t>jholgate</t>
-  </si>
-  <si>
-    <t>asalado</t>
-  </si>
-  <si>
-    <t>jhutcheson</t>
-  </si>
-  <si>
-    <t>ctomkins</t>
-  </si>
-  <si>
-    <t>esmith</t>
-  </si>
-  <si>
-    <t>iamaya</t>
-  </si>
-  <si>
-    <t>ianderson</t>
-  </si>
-  <si>
-    <t>lbengtson</t>
-  </si>
-  <si>
-    <t>adiaz</t>
-  </si>
-  <si>
-    <t>tgill</t>
-  </si>
-  <si>
-    <t>akabir</t>
-  </si>
-  <si>
-    <t>hkatz</t>
-  </si>
-  <si>
-    <t>wkeyse</t>
-  </si>
-  <si>
-    <t>rlaitila</t>
-  </si>
-  <si>
-    <t>aluong</t>
-  </si>
-  <si>
-    <t>lmorton</t>
-  </si>
-  <si>
-    <t>smyers</t>
-  </si>
-  <si>
-    <t>mtaponga</t>
-  </si>
-  <si>
-    <t>swalling</t>
-  </si>
-  <si>
     <t>Accounting &amp; Finance</t>
   </si>
   <si>
@@ -382,6 +259,129 @@
   </si>
   <si>
     <t>Statistics</t>
+  </si>
+  <si>
+    <t>mzach|Maggie Zach</t>
+  </si>
+  <si>
+    <t>jdejesus|James DeJesus</t>
+  </si>
+  <si>
+    <t>iyu|Ivin Yu</t>
+  </si>
+  <si>
+    <t>eparlan|Emily Parlan</t>
+  </si>
+  <si>
+    <t>bwitter|Brynn Witter</t>
+  </si>
+  <si>
+    <t>gchang|Gabby Chang</t>
+  </si>
+  <si>
+    <t>jli|Jiawen Li</t>
+  </si>
+  <si>
+    <t>kstutz|Kathryn Stutz</t>
+  </si>
+  <si>
+    <t>klamar|Kara Ann Lamar</t>
+  </si>
+  <si>
+    <t>sberling|Sam Berling</t>
+  </si>
+  <si>
+    <t>mkraus|Miranda Kraus</t>
+  </si>
+  <si>
+    <t>glizier|Geremia Lizier-Zmudzinksi</t>
+  </si>
+  <si>
+    <t>cvanboven|Caleb van Boven</t>
+  </si>
+  <si>
+    <t>lroberts|Lindsey Roberts</t>
+  </si>
+  <si>
+    <t>zbranch|Zoe Branch</t>
+  </si>
+  <si>
+    <t>mpoplawsky|Meadow Poplawsky</t>
+  </si>
+  <si>
+    <t>kmoffett|Katarina Moffett</t>
+  </si>
+  <si>
+    <t>bimada|Brittney Imada</t>
+  </si>
+  <si>
+    <t>rchaiser|Rachel Chaiser</t>
+  </si>
+  <si>
+    <t>mberrens|Maggie Berrens</t>
+  </si>
+  <si>
+    <t>jfonseca|Jordan Fonseca</t>
+  </si>
+  <si>
+    <t>kmiller|Kyle Miller</t>
+  </si>
+  <si>
+    <t>jholgate|Jule Holgate</t>
+  </si>
+  <si>
+    <t>asalado|Arcelia Salado Alvarado</t>
+  </si>
+  <si>
+    <t>jhutechson|Jayne Hutcheson</t>
+  </si>
+  <si>
+    <t>ctomkins|Cole Tomkins</t>
+  </si>
+  <si>
+    <t>esmith|Erika Smith</t>
+  </si>
+  <si>
+    <t>iamaya|Isabel Amaya</t>
+  </si>
+  <si>
+    <t>ianderson|Isabelle Anderson</t>
+  </si>
+  <si>
+    <t>lbengston|Lilly Bengston</t>
+  </si>
+  <si>
+    <t>adiaz|Amanda Diaz</t>
+  </si>
+  <si>
+    <t>tgill|Tiare Gill</t>
+  </si>
+  <si>
+    <t>akabir|Alia Kabir</t>
+  </si>
+  <si>
+    <t>hkatz|Hannah Katz</t>
+  </si>
+  <si>
+    <t>wkeyse|William Keyse</t>
+  </si>
+  <si>
+    <t>rlaitila|Rachael Laitila</t>
+  </si>
+  <si>
+    <t>aluong|Amy Luong</t>
+  </si>
+  <si>
+    <t>lmorton|Lura Morton</t>
+  </si>
+  <si>
+    <t>smyers|Sophie Myers</t>
+  </si>
+  <si>
+    <t>mtapogna|Max Tapogna</t>
+  </si>
+  <si>
+    <t>swalling|Sarah Walling-Bell</t>
   </si>
 </sst>
 </file>
@@ -838,9 +838,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D71848E-EFA5-494B-8942-CEECAAF65D58}">
   <dimension ref="A1:BN43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BJ42" sqref="BJ42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1034,187 +1034,187 @@
     </row>
     <row r="2" spans="1:66">
       <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>2</v>
+      </c>
+      <c r="T2" s="1">
+        <v>2</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>2</v>
+      </c>
+      <c r="W2" s="1">
+        <v>2</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="s">
         <v>60</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>2</v>
-      </c>
-      <c r="T2" s="1">
-        <v>2</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1">
-        <v>2</v>
-      </c>
-      <c r="W2" s="1">
-        <v>2</v>
-      </c>
-      <c r="X2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AV2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="1">
-        <v>2</v>
-      </c>
-      <c r="BA2" s="1">
-        <v>2</v>
-      </c>
-      <c r="BB2" s="1">
-        <v>2</v>
-      </c>
-      <c r="BC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="1">
-        <v>2</v>
-      </c>
-      <c r="BE2" s="1">
-        <v>2</v>
-      </c>
-      <c r="BF2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>101</v>
       </c>
       <c r="BJ2" s="3">
         <v>8</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="3" spans="1:66">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="BI3" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="BN3">
         <v>1</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="4" spans="1:66">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="BI4" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="BN4">
         <v>1</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="5" spans="1:66">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="BI5" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="BN5">
         <v>1</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="6" spans="1:66">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="BI6" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="BN6">
         <v>1</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="7" spans="1:66">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="BI7" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="BJ7" s="3">
         <v>-2</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="8" spans="1:66">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>2</v>
       </c>
       <c r="BI8" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="BN8">
         <v>1</v>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="9" spans="1:66">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="BI9" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="BN9">
         <v>1</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="10" spans="1:66">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="BI10" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="BJ10" s="3">
         <v>-2</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="11" spans="1:66">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="BI11" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="BJ11" s="3">
         <v>-2</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="12" spans="1:66">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="BI12" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="BJ12" s="3">
         <v>-2</v>
@@ -3117,187 +3117,187 @@
     </row>
     <row r="13" spans="1:66">
       <c r="A13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2</v>
+      </c>
+      <c r="N13" s="1">
+        <v>2</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>2</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE13" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI13" t="s">
         <v>71</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>2</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>2</v>
-      </c>
-      <c r="M13" s="1">
-        <v>2</v>
-      </c>
-      <c r="N13" s="1">
-        <v>2</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>1</v>
-      </c>
-      <c r="R13" s="1">
-        <v>1</v>
-      </c>
-      <c r="S13" s="1">
-        <v>0</v>
-      </c>
-      <c r="T13" s="1">
-        <v>2</v>
-      </c>
-      <c r="U13" s="1">
-        <v>0</v>
-      </c>
-      <c r="V13" s="1">
-        <v>0</v>
-      </c>
-      <c r="W13" s="1">
-        <v>0</v>
-      </c>
-      <c r="X13" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AV13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AY13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD13" s="1">
-        <v>2</v>
-      </c>
-      <c r="BE13" s="1">
-        <v>2</v>
-      </c>
-      <c r="BF13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH13" s="1">
-        <v>2</v>
-      </c>
-      <c r="BI13" t="s">
-        <v>112</v>
       </c>
       <c r="BN13">
         <v>1</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="14" spans="1:66">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="BI14" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="15" spans="1:66">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="BI15" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="BN15">
         <v>1</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="16" spans="1:66">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -3861,10 +3861,10 @@
         <v>2</v>
       </c>
       <c r="BI16" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="BJ16" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="BK16">
         <v>10</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="17" spans="1:66">
       <c r="A17" s="1" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>2</v>
       </c>
       <c r="BI17" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="BN17">
         <v>1</v>
@@ -4066,7 +4066,7 @@
     </row>
     <row r="18" spans="1:66">
       <c r="A18" s="1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -4246,7 +4246,7 @@
         <v>2</v>
       </c>
       <c r="BI18" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="BN18">
         <v>1</v>
@@ -4254,7 +4254,7 @@
     </row>
     <row r="19" spans="1:66">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="BI19" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="BN19">
         <v>1</v>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="20" spans="1:66">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>2</v>
       </c>
       <c r="BI20" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="BN20">
         <v>1</v>
@@ -4630,7 +4630,7 @@
     </row>
     <row r="21" spans="1:66">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="BI21" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="BN21">
         <v>1</v>
@@ -4818,7 +4818,7 @@
     </row>
     <row r="22" spans="1:66">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -4998,13 +4998,13 @@
         <v>0</v>
       </c>
       <c r="BI22" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="BJ22" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="BK22" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="BL22">
         <v>12</v>
@@ -5018,7 +5018,7 @@
     </row>
     <row r="23" spans="1:66">
       <c r="A23" s="1" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="BI23" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="BJ23" s="3">
         <v>-2</v>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="24" spans="1:66">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="BI24" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="BJ24" s="3">
         <v>-2</v>
@@ -5400,7 +5400,7 @@
     </row>
     <row r="25" spans="1:66">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -5580,7 +5580,7 @@
         <v>2</v>
       </c>
       <c r="BI25" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="BN25">
         <v>1</v>
@@ -5588,7 +5588,7 @@
     </row>
     <row r="26" spans="1:66">
       <c r="A26" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -5768,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="BI26" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="BN26">
         <v>1</v>
@@ -5776,7 +5776,7 @@
     </row>
     <row r="27" spans="1:66">
       <c r="A27" s="1" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -5956,7 +5956,7 @@
         <v>1</v>
       </c>
       <c r="BI27" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="BN27">
         <v>1</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="28" spans="1:66">
       <c r="A28" s="1" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
@@ -6144,7 +6144,7 @@
         <v>2</v>
       </c>
       <c r="BI28" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="BJ28" s="3">
         <v>-2</v>
@@ -6155,7 +6155,7 @@
     </row>
     <row r="29" spans="1:66">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -6335,7 +6335,7 @@
         <v>1</v>
       </c>
       <c r="BI29" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="BN29">
         <v>1</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="30" spans="1:66">
       <c r="A30" s="1" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
@@ -6523,7 +6523,7 @@
         <v>2</v>
       </c>
       <c r="BI30" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="BJ30" s="3">
         <v>9</v>
@@ -6537,7 +6537,7 @@
     </row>
     <row r="31" spans="1:66">
       <c r="A31" s="1" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -6717,10 +6717,10 @@
         <v>0</v>
       </c>
       <c r="BI31" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="BJ31" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="BK31" s="4">
         <v>-2</v>
@@ -6731,7 +6731,7 @@
     </row>
     <row r="32" spans="1:66">
       <c r="A32" s="1" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>2</v>
       </c>
       <c r="BI32" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="BJ32" s="3">
         <v>-2</v>
@@ -6922,7 +6922,7 @@
     </row>
     <row r="33" spans="1:66">
       <c r="A33" s="1" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -7102,10 +7102,10 @@
         <v>0</v>
       </c>
       <c r="BI33" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="BJ33" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="BK33" s="4">
         <v>12</v>
@@ -7119,7 +7119,7 @@
     </row>
     <row r="34" spans="1:66">
       <c r="A34" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
@@ -7299,7 +7299,7 @@
         <v>2</v>
       </c>
       <c r="BI34" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="BN34">
         <v>1</v>
@@ -7307,7 +7307,7 @@
     </row>
     <row r="35" spans="1:66">
       <c r="A35" s="1" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="BI35" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="BN35">
         <v>1</v>
@@ -7495,7 +7495,7 @@
     </row>
     <row r="36" spans="1:66">
       <c r="A36" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
@@ -7675,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="BI36" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="BN36">
         <v>1</v>
@@ -7683,7 +7683,7 @@
     </row>
     <row r="37" spans="1:66">
       <c r="A37" s="1" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
@@ -7863,7 +7863,7 @@
         <v>2</v>
       </c>
       <c r="BI37" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="BN37">
         <v>1</v>
@@ -7871,7 +7871,7 @@
     </row>
     <row r="38" spans="1:66">
       <c r="A38" s="1" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
@@ -8051,7 +8051,7 @@
         <v>2</v>
       </c>
       <c r="BI38" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="BJ38" s="3">
         <v>3</v>
@@ -8065,7 +8065,7 @@
     </row>
     <row r="39" spans="1:66">
       <c r="A39" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
@@ -8245,7 +8245,7 @@
         <v>2</v>
       </c>
       <c r="BI39" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="BJ39" s="3">
         <v>12</v>
@@ -8256,7 +8256,7 @@
     </row>
     <row r="40" spans="1:66">
       <c r="A40" s="1" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
@@ -8436,10 +8436,10 @@
         <v>1</v>
       </c>
       <c r="BI40" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="BJ40" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="BK40" s="4">
         <v>-2</v>
@@ -8450,7 +8450,7 @@
     </row>
     <row r="41" spans="1:66">
       <c r="A41" s="1" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
@@ -8630,7 +8630,7 @@
         <v>1</v>
       </c>
       <c r="BI41" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="BN41">
         <v>1</v>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="42" spans="1:66">
       <c r="A42" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -8818,7 +8818,7 @@
         <v>0</v>
       </c>
       <c r="BI42" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="BN42">
         <v>1</v>
@@ -8826,239 +8826,239 @@
     </row>
     <row r="43" spans="1:66">
       <c r="B43">
-        <f>SUMIF(B2:B42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" ref="B43:AG43" si="0">SUMIF(B2:B42, "&lt;2", $BN2:$BN42)</f>
         <v>37</v>
       </c>
       <c r="C43">
-        <f>SUMIF(C2:C42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="D43">
-        <f>SUMIF(D2:D42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="E43">
-        <f>SUMIF(E2:E42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="F43">
-        <f>SUMIF(F2:F42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="G43">
-        <f>SUMIF(G2:G42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="H43">
-        <f>SUMIF(H2:H42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="I43">
-        <f>SUMIF(I2:I42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="J43">
-        <f>SUMIF(J2:J42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="K43">
-        <f>SUMIF(K2:K42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="L43">
-        <f>SUMIF(L2:L42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="M43">
-        <f>SUMIF(M2:M42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="N43">
-        <f>SUMIF(N2:N42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="O43">
-        <f>SUMIF(O2:O42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="P43">
-        <f>SUMIF(P2:P42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="Q43">
-        <f>SUMIF(Q2:Q42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="R43">
-        <f>SUMIF(R2:R42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="S43">
-        <f>SUMIF(S2:S42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="T43">
-        <f>SUMIF(T2:T42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="U43">
-        <f>SUMIF(U2:U42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="V43">
-        <f>SUMIF(V2:V42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="W43">
-        <f>SUMIF(W2:W42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="X43">
-        <f>SUMIF(X2:X42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="Y43">
-        <f>SUMIF(Y2:Y42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="Z43">
-        <f>SUMIF(Z2:Z42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="AA43">
-        <f>SUMIF(AA2:AA42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="AB43">
-        <f>SUMIF(AB2:AB42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="AC43">
-        <f>SUMIF(AC2:AC42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="AD43">
-        <f>SUMIF(AD2:AD42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="AE43">
-        <f>SUMIF(AE2:AE42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="AF43">
-        <f>SUMIF(AF2:AF42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AG43">
-        <f>SUMIF(AG2:AG42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="AH43">
-        <f>SUMIF(AH2:AH42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" ref="AH43:BM43" si="1">SUMIF(AH2:AH42, "&lt;2", $BN2:$BN42)</f>
         <v>40</v>
       </c>
       <c r="AI43">
-        <f>SUMIF(AI2:AI42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="AJ43">
-        <f>SUMIF(AJ2:AJ42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="AK43">
-        <f>SUMIF(AK2:AK42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="AL43">
-        <f>SUMIF(AL2:AL42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="AM43">
-        <f>SUMIF(AM2:AM42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="AN43">
-        <f>SUMIF(AN2:AN42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="AO43">
-        <f>SUMIF(AO2:AO42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="AP43">
-        <f>SUMIF(AP2:AP42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="AQ43">
-        <f>SUMIF(AQ2:AQ42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="AR43">
-        <f>SUMIF(AR2:AR42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="AS43">
-        <f>SUMIF(AS2:AS42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="AT43">
-        <f>SUMIF(AT2:AT42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="AU43">
-        <f>SUMIF(AU2:AU42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="AV43">
-        <f>SUMIF(AV2:AV42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="AW43">
-        <f>SUMIF(AW2:AW42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="AX43">
-        <f>SUMIF(AX2:AX42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="AY43">
-        <f>SUMIF(AY2:AY42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="AZ43">
-        <f>SUMIF(AZ2:AZ42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="BA43">
-        <f>SUMIF(BA2:BA42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="BB43">
-        <f>SUMIF(BB2:BB42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="BC43">
-        <f>SUMIF(BC2:BC42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="BD43">
-        <f>SUMIF(BD2:BD42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="BE43">
-        <f>SUMIF(BE2:BE42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="BF43">
-        <f>SUMIF(BF2:BF42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="BG43">
-        <f>SUMIF(BG2:BG42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="BH43">
-        <f>SUMIF(BH2:BH42, "&lt;2", $BN2:$BN42)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
